--- a/final_data_pipeline/output/322130_kraft_elec.xlsx
+++ b/final_data_pipeline/output/322130_kraft_elec.xlsx
@@ -1023,7 +1023,7 @@
         <v>73</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -1070,7 +1070,7 @@
         <v>72</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1085,10 +1085,10 @@
         <v>1419151.02748878</v>
       </c>
       <c r="R9">
-        <v>2.983181818181818</v>
+        <v>3.135414186445925</v>
       </c>
       <c r="S9">
-        <v>3.590555555555556</v>
+        <v>3.817068050129936</v>
       </c>
       <c r="T9">
         <v>177.3938784360975</v>
@@ -1129,7 +1129,7 @@
         <v>70</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1150,10 +1150,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R10">
-        <v>1.800714285714286</v>
+        <v>1.847705673092716</v>
       </c>
       <c r="S10">
-        <v>1.963947368421052</v>
+        <v>2.020749367497032</v>
       </c>
       <c r="T10">
         <v>285.7998259898003</v>
@@ -1359,7 +1359,7 @@
         <v>70</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1380,10 +1380,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R14">
-        <v>1.800714285714286</v>
+        <v>1.92665172779809</v>
       </c>
       <c r="S14">
-        <v>1.963947368421052</v>
+        <v>2.116885095206829</v>
       </c>
       <c r="T14">
         <v>185.794286928455</v>
@@ -1418,7 +1418,7 @@
         <v>72</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1433,10 +1433,10 @@
         <v>922569.3272656928</v>
       </c>
       <c r="R15">
-        <v>2.983181818181818</v>
+        <v>3.408530896850205</v>
       </c>
       <c r="S15">
-        <v>3.590555555555556</v>
+        <v>4.236746585735966</v>
       </c>
       <c r="T15">
         <v>115.3211659082116</v>
@@ -1471,7 +1471,7 @@
         <v>73</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -2019,7 +2019,7 @@
         <v>70</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -2040,10 +2040,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R26">
-        <v>1.800714285714286</v>
+        <v>1.847705673092716</v>
       </c>
       <c r="S26">
-        <v>1.963947368421052</v>
+        <v>2.020749367497032</v>
       </c>
       <c r="T26">
         <v>105.4801463758995</v>
@@ -2078,7 +2078,7 @@
         <v>72</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -2093,10 +2093,10 @@
         <v>523766.092546071</v>
       </c>
       <c r="R27">
-        <v>2.983181818181818</v>
+        <v>3.135414186445925</v>
       </c>
       <c r="S27">
-        <v>3.590555555555556</v>
+        <v>3.817068050129936</v>
       </c>
       <c r="T27">
         <v>65.47076156825888</v>
@@ -2131,7 +2131,7 @@
         <v>73</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2885,7 +2885,7 @@
         <v>72</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -2900,10 +2900,10 @@
         <v>753812.5397761788</v>
       </c>
       <c r="R42">
-        <v>2.983181818181818</v>
+        <v>2.455497817501559</v>
       </c>
       <c r="S42">
-        <v>3.590555555555556</v>
+        <v>2.843656807626497</v>
       </c>
       <c r="T42">
         <v>94.22656747202235</v>
@@ -2938,7 +2938,7 @@
         <v>73</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L43">
         <v>8000</v>
@@ -2991,7 +2991,7 @@
         <v>70</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L44">
         <v>8000</v>
@@ -3012,10 +3012,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R44">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="S44">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="T44">
         <v>151.8087141706027</v>
@@ -3050,7 +3050,7 @@
         <v>73</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L45">
         <v>8000</v>
@@ -3103,7 +3103,7 @@
         <v>70</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L46">
         <v>8000</v>
@@ -3124,10 +3124,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R46">
-        <v>1.800714285714286</v>
+        <v>1.865062221714807</v>
       </c>
       <c r="S46">
-        <v>1.963947368421052</v>
+        <v>2.041808739708676</v>
       </c>
       <c r="T46">
         <v>198.1001206187846</v>
@@ -3162,7 +3162,7 @@
         <v>72</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L47">
         <v>8000</v>
@@ -3177,10 +3177,10 @@
         <v>983674.4607809267</v>
       </c>
       <c r="R47">
-        <v>2.983181818181818</v>
+        <v>3.193530074341067</v>
       </c>
       <c r="S47">
-        <v>3.590555555555556</v>
+        <v>3.904917482517481</v>
       </c>
       <c r="T47">
         <v>122.9593075976158</v>
@@ -3380,7 +3380,7 @@
         <v>72</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L51">
         <v>8000</v>
@@ -3395,10 +3395,10 @@
         <v>140192.2543524546</v>
       </c>
       <c r="R51">
-        <v>2.983181818181818</v>
+        <v>3.15624931769735</v>
       </c>
       <c r="S51">
-        <v>3.590555555555556</v>
+        <v>3.848474349579903</v>
       </c>
       <c r="T51">
         <v>17.52403179405683</v>
@@ -3433,7 +3433,7 @@
         <v>73</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L52">
         <v>8000</v>
@@ -3486,7 +3486,7 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L53">
         <v>8000</v>
@@ -3507,10 +3507,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R53">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="S53">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="T53">
         <v>28.23302180173783</v>
@@ -3545,7 +3545,7 @@
         <v>73</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L54">
         <v>8000</v>
@@ -3592,7 +3592,7 @@
         <v>72</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L55">
         <v>8000</v>
@@ -3607,10 +3607,10 @@
         <v>499496.9096867541</v>
       </c>
       <c r="R55">
-        <v>2.983181818181818</v>
+        <v>2.455497817501559</v>
       </c>
       <c r="S55">
-        <v>3.590555555555556</v>
+        <v>2.843656807626497</v>
       </c>
       <c r="T55">
         <v>62.43711371084427</v>
@@ -3651,7 +3651,7 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L56">
         <v>8000</v>
@@ -3672,10 +3672,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R56">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="S56">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="T56">
         <v>100.5926269338137</v>
@@ -3875,7 +3875,7 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L60">
         <v>8000</v>
@@ -3928,7 +3928,7 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L61">
         <v>8000</v>
@@ -3949,10 +3949,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R61">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="S61">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="T61">
         <v>51.21183095391873</v>
@@ -3987,7 +3987,7 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L62">
         <v>8000</v>
@@ -4002,10 +4002,10 @@
         <v>254294.4953382484</v>
       </c>
       <c r="R62">
-        <v>2.983181818181818</v>
+        <v>3.15624931769735</v>
       </c>
       <c r="S62">
-        <v>3.590555555555556</v>
+        <v>3.848474349579903</v>
       </c>
       <c r="T62">
         <v>31.78681191728105</v>
@@ -4205,7 +4205,7 @@
         <v>72</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="L66">
         <v>8000</v>
@@ -4220,10 +4220,10 @@
         <v>379499.9015699624</v>
       </c>
       <c r="R66">
-        <v>2.983181818181818</v>
+        <v>3.595434716445165</v>
       </c>
       <c r="S66">
-        <v>3.590555555555556</v>
+        <v>4.534260101338181</v>
       </c>
       <c r="T66">
         <v>47.4374876962453</v>
@@ -4264,7 +4264,7 @@
         <v>70</v>
       </c>
       <c r="K67">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="L67">
         <v>8000</v>
@@ -4285,10 +4285,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R67">
-        <v>1.800714285714286</v>
+        <v>1.977063465169192</v>
       </c>
       <c r="S67">
-        <v>1.963947368421052</v>
+        <v>2.178742498783586</v>
       </c>
       <c r="T67">
         <v>76.42668308796266</v>
@@ -4323,7 +4323,7 @@
         <v>73</v>
       </c>
       <c r="K68">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="L68">
         <v>8000</v>
@@ -4370,7 +4370,7 @@
         <v>72</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L69">
         <v>8000</v>
@@ -4385,10 +4385,10 @@
         <v>315991.6826555474</v>
       </c>
       <c r="R69">
-        <v>2.983181818181818</v>
+        <v>3.193530074341067</v>
       </c>
       <c r="S69">
-        <v>3.590555555555556</v>
+        <v>3.904917482517481</v>
       </c>
       <c r="T69">
         <v>39.49896033194342</v>
@@ -4429,7 +4429,7 @@
         <v>70</v>
       </c>
       <c r="K70">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L70">
         <v>8000</v>
@@ -4450,10 +4450,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R70">
-        <v>1.800714285714286</v>
+        <v>1.865062221714807</v>
       </c>
       <c r="S70">
-        <v>1.963947368421052</v>
+        <v>2.041808739708676</v>
       </c>
       <c r="T70">
         <v>63.63689710811531</v>
@@ -4488,7 +4488,7 @@
         <v>73</v>
       </c>
       <c r="K71">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L71">
         <v>8000</v>
@@ -4700,7 +4700,7 @@
         <v>73</v>
       </c>
       <c r="K75">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L75">
         <v>8000</v>
@@ -4753,7 +4753,7 @@
         <v>70</v>
       </c>
       <c r="K76">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L76">
         <v>8000</v>
@@ -4774,10 +4774,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R76">
-        <v>1.800714285714286</v>
+        <v>1.983015294974508</v>
       </c>
       <c r="S76">
-        <v>1.963947368421052</v>
+        <v>2.18606997558991</v>
       </c>
       <c r="T76">
         <v>171.5330582737022</v>
@@ -4812,7 +4812,7 @@
         <v>72</v>
       </c>
       <c r="K77">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L77">
         <v>8000</v>
@@ -4827,10 +4827,10 @@
         <v>851754.5980105142</v>
       </c>
       <c r="R77">
-        <v>2.983181818181818</v>
+        <v>3.618192955589586</v>
       </c>
       <c r="S77">
-        <v>3.590555555555556</v>
+        <v>4.571080550098231</v>
       </c>
       <c r="T77">
         <v>106.4693247513143</v>
@@ -5690,7 +5690,7 @@
         <v>73</v>
       </c>
       <c r="K93">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L93">
         <v>8000</v>
@@ -5737,7 +5737,7 @@
         <v>72</v>
       </c>
       <c r="K94">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L94">
         <v>8000</v>
@@ -5752,10 +5752,10 @@
         <v>477931.0004827667</v>
       </c>
       <c r="R94">
-        <v>2.983181818181818</v>
+        <v>3.15624931769735</v>
       </c>
       <c r="S94">
-        <v>3.590555555555556</v>
+        <v>3.848474349579903</v>
       </c>
       <c r="T94">
         <v>59.74137506034583</v>
@@ -5796,7 +5796,7 @@
         <v>70</v>
       </c>
       <c r="K95">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L95">
         <v>8000</v>
@@ -5817,10 +5817,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R95">
-        <v>1.800714285714286</v>
+        <v>1.853964204859962</v>
       </c>
       <c r="S95">
-        <v>1.963947368421052</v>
+        <v>2.02833814451736</v>
       </c>
       <c r="T95">
         <v>96.24951405969072</v>
@@ -6020,7 +6020,7 @@
         <v>72</v>
       </c>
       <c r="K99">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L99">
         <v>8000</v>
@@ -6035,10 +6035,10 @@
         <v>1937556.489427135</v>
       </c>
       <c r="R99">
-        <v>2.983181818181818</v>
+        <v>2.455497817501559</v>
       </c>
       <c r="S99">
-        <v>3.590555555555556</v>
+        <v>2.843656807626497</v>
       </c>
       <c r="T99">
         <v>242.1945611783918</v>
@@ -6079,7 +6079,7 @@
         <v>70</v>
       </c>
       <c r="K100">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L100">
         <v>8000</v>
@@ -6100,10 +6100,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R100">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="S100">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="T100">
         <v>390.200406297533</v>
@@ -6138,7 +6138,7 @@
         <v>73</v>
       </c>
       <c r="K101">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L101">
         <v>8000</v>
@@ -6350,7 +6350,7 @@
         <v>72</v>
       </c>
       <c r="K105">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L105">
         <v>8000</v>
@@ -6365,10 +6365,10 @@
         <v>2443084.823108844</v>
       </c>
       <c r="R105">
-        <v>2.983181818181818</v>
+        <v>2.756919486581097</v>
       </c>
       <c r="S105">
-        <v>3.590555555555556</v>
+        <v>3.263225806451613</v>
       </c>
       <c r="T105">
         <v>305.3856028886055</v>
@@ -6409,7 +6409,7 @@
         <v>70</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L106">
         <v>8000</v>
@@ -6430,10 +6430,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R106">
-        <v>1.800714285714286</v>
+        <v>1.726493341788205</v>
       </c>
       <c r="S106">
-        <v>1.963947368421052</v>
+        <v>1.874863921842289</v>
       </c>
       <c r="T106">
         <v>492.0076889620191</v>
@@ -6468,7 +6468,7 @@
         <v>73</v>
       </c>
       <c r="K107">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L107">
         <v>8000</v>
